--- a/Forst_Ballistic.xlsx
+++ b/Forst_Ballistic.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Programming Lab</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Time step</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>miny</t>
   </si>
 </sst>
 </file>
@@ -931,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1024,21 +1030,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <f>MIN(ABS(Calculations!D2:D52))</f>
-        <v>25.999552868011776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <f>ABS(-15)</f>
         <v>15</v>
@@ -1058,15 +1060,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1084,14 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1105,8 +1113,16 @@
         <f>v0*SIN(phi0)</f>
         <v>85.090352453411839</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>ABS(D2)</f>
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <f>MIN(Calculations!G2:G52)</f>
+        <v>0.52432917763768927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1130,8 +1146,12 @@
         <f>F2+g*dt*A3</f>
         <v>84.99235245341184</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G52" si="0">ABS(D3)</f>
+        <v>15.849923524534118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1155,8 +1175,12 @@
         <f>F3+g*dt*A4</f>
         <v>84.796352453411842</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>16.695927049068239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1180,8 +1204,12 @@
         <f>F4+g*dt*A5</f>
         <v>84.502352453411845</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>17.535070573602354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1205,8 +1233,12 @@
         <f>F5+g*dt*A6</f>
         <v>84.110352453411849</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>18.364414098136475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1230,8 +1262,12 @@
         <f>F6+g*dt*A7</f>
         <v>83.620352453411854</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>19.181017622670595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1255,8 +1291,12 @@
         <f>F7+g*dt*A8</f>
         <v>83.03235245341186</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>19.981941147204711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1280,8 +1320,12 @@
         <f>F8+g*dt*A9</f>
         <v>82.346352453411853</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>20.76424467173883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1305,8 +1349,12 @@
         <f>F9+g*dt*A10</f>
         <v>81.562352453411847</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>21.524988196272947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1330,8 +1378,12 @@
         <f>F10+g*dt*A11</f>
         <v>80.680352453411842</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>22.261231720807068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1355,8 +1407,12 @@
         <f>F11+g*dt*A12</f>
         <v>79.700352453411838</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22.970035245341183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1380,8 +1436,12 @@
         <f>F12+g*dt*A13</f>
         <v>78.622352453411835</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>23.648458769875305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1405,8 +1465,12 @@
         <f>F13+g*dt*A14</f>
         <v>77.446352453411833</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>24.293562294409419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1430,8 +1494,12 @@
         <f>F14+g*dt*A15</f>
         <v>76.172352453411833</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>24.902405818943539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1455,8 +1523,12 @@
         <f>F15+g*dt*A16</f>
         <v>74.800352453411833</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>25.472049343477657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1480,8 +1552,12 @@
         <f>F16+g*dt*A17</f>
         <v>73.330352453411834</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>25.999552868011776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1505,8 +1581,12 @@
         <f>F17+g*dt*A18</f>
         <v>71.762352453411836</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>26.481976392545896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1530,8 +1610,12 @@
         <f>F18+g*dt*A19</f>
         <v>70.096352453411839</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>26.916379917080015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1555,8 +1639,12 @@
         <f>F19+g*dt*A20</f>
         <v>68.332352453411843</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>27.299823441614134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1580,8 +1668,12 @@
         <f>F20+g*dt*A21</f>
         <v>66.470352453411849</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>27.629366966148254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1605,8 +1697,12 @@
         <f>F21+g*dt*A22</f>
         <v>64.510352453411855</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>27.90207049068237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1630,8 +1726,12 @@
         <f>F22+g*dt*A23</f>
         <v>62.452352453411855</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>28.114994015216489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1655,8 +1755,12 @@
         <f>F23+g*dt*A24</f>
         <v>60.296352453411856</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>28.265197539750609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1680,8 +1784,12 @@
         <f>F24+g*dt*A25</f>
         <v>58.042352453411858</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>28.349741064284729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1705,8 +1813,12 @@
         <f>F25+g*dt*A26</f>
         <v>55.690352453411862</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>28.365684588818848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1730,8 +1842,12 @@
         <f>F26+g*dt*A27</f>
         <v>53.240352453411859</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>28.310088113352961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1755,8 +1871,12 @@
         <f>F27+g*dt*A28</f>
         <v>50.692352453411857</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>28.180011637887084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1780,8 +1900,12 @@
         <f>F28+g*dt*A29</f>
         <v>48.046352453411856</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>27.972515162421203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1805,8 +1929,12 @@
         <f>F29+g*dt*A30</f>
         <v>45.302352453411856</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>27.68465868695532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1830,8 +1958,12 @@
         <f>F30+g*dt*A31</f>
         <v>42.460352453411858</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>27.313502211489439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1855,8 +1987,12 @@
         <f>F31+g*dt*A32</f>
         <v>39.52035245341186</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>26.856105736023558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1880,8 +2016,12 @@
         <f>F32+g*dt*A33</f>
         <v>36.482352453411863</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>26.309529260557678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1905,8 +2045,12 @@
         <f>F33+g*dt*A34</f>
         <v>33.34635245341186</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>25.670832785091797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1930,8 +2074,12 @@
         <f>F34+g*dt*A35</f>
         <v>30.112352453411859</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>24.937076309625915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1955,8 +2103,12 @@
         <f>F35+g*dt*A36</f>
         <v>26.780352453411858</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>24.105319834160031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1980,8 +2132,12 @@
         <f>F36+g*dt*A37</f>
         <v>23.350352453411858</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>23.172623358694153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2005,8 +2161,12 @@
         <f>F37+g*dt*A38</f>
         <v>19.82235245341186</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>22.136046883228268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2030,8 +2190,12 @@
         <f>F38+g*dt*A39</f>
         <v>16.196352453411858</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>20.992650407762387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2055,8 +2219,12 @@
         <f>F39+g*dt*A40</f>
         <v>12.472352453411858</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>19.739493932296504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2080,8 +2248,12 @@
         <f>F40+g*dt*A41</f>
         <v>8.650352453411859</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>18.373637456830625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2105,8 +2277,12 @@
         <f>F41+g*dt*A42</f>
         <v>4.7303524534118591</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>16.892140981364744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2130,8 +2306,12 @@
         <f>F42+g*dt*A43</f>
         <v>0.71235245341185927</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>15.292064505898862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2155,8 +2335,12 @@
         <f>F43+g*dt*A44</f>
         <v>-3.4036475465881413</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>13.570468030432981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2180,8 +2364,12 @@
         <f>F44+g*dt*A45</f>
         <v>-7.6176475465881417</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>11.724411554967098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2205,8 +2393,12 @@
         <f>F45+g*dt*A46</f>
         <v>-11.929647546588143</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>9.7509550795012174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2230,8 +2422,12 @@
         <f>F46+g*dt*A47</f>
         <v>-16.339647546588143</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>7.6471586040353356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2255,8 +2451,12 @@
         <f>F47+g*dt*A48</f>
         <v>-20.847647546588142</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>5.4100821285694529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2280,8 +2480,12 @@
         <f>F48+g*dt*A49</f>
         <v>-25.453647546588144</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>3.0367856531035731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2305,8 +2509,12 @@
         <f>F49+g*dt*A50</f>
         <v>-30.157647546588144</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0.52432917763768927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2330,8 +2538,12 @@
         <f>F50+g*dt*A51</f>
         <v>-34.959647546588144</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>2.130227297828192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2354,6 +2566,10 @@
       <c r="F52">
         <f>F51+g*dt*A52</f>
         <v>-39.859647546588143</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>4.9298237732940713</v>
       </c>
     </row>
   </sheetData>
